--- a/documents/tableau - cdms.xlsx
+++ b/documents/tableau - cdms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Exo Back\Exercices-CDMS\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E6E4F1-5C3E-48F5-94AC-284CBA47E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FF30BD-850A-4361-AC28-AF271C3FDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="1065" windowWidth="19965" windowHeight="11970" xr2:uid="{82FEB929-C71F-414B-8C61-E8C647975397}"/>
+    <workbookView xWindow="1344" yWindow="252" windowWidth="19968" windowHeight="11976" activeTab="2" xr2:uid="{82FEB929-C71F-414B-8C61-E8C647975397}"/>
   </bookViews>
   <sheets>
     <sheet name="Controleur JS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>Rôle</t>
   </si>
@@ -52,9 +52,6 @@
     <t>fragment: code HTML à afficher</t>
   </si>
   <si>
-    <t>$conversation: objet conversation chargé</t>
-  </si>
-  <si>
     <t>nouvelleConversation</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>MAJ de la liste des conversations</t>
   </si>
   <si>
-    <t>MAJ de la conversation</t>
-  </si>
-  <si>
     <t>En JS; créer une nouvelle conversation</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>extraire la liste des articles en fonction des filtres selectionnés</t>
   </si>
   <si>
-    <t>$_POST: filtres choisi dans le formulaire</t>
-  </si>
-  <si>
     <t>enregistrer le nouveau compte dans la bdd</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>majListeConversation</t>
   </si>
   <si>
-    <t>majConversation</t>
-  </si>
-  <si>
     <t>$liste_conversations : tableau simple des conversations</t>
   </si>
   <si>
@@ -247,12 +235,6 @@
     <t>recupererConversation</t>
   </si>
   <si>
-    <t xml:space="preserve"> $conatct_id; id du correspondant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$artist_id; id de l'artiste </t>
-  </si>
-  <si>
     <t>En JS: demander au serveur si la la conversation avec l'artiste existe</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>ajax_afficher_nouvelle_conversation.php</t>
   </si>
   <si>
-    <t>$_GET: $contact_id, id du contact</t>
-  </si>
-  <si>
     <t>liste_conversations.php</t>
   </si>
   <si>
@@ -313,15 +292,9 @@
     <t>extraire les conversations et pépare son affichage</t>
   </si>
   <si>
-    <t>$_GET  avec fetch: $contact_id, id du contact avec qui on converse</t>
-  </si>
-  <si>
     <t>$liste_artistes_filtres : tableau d'objet des artistes filtrés avec $artiste comme index</t>
   </si>
   <si>
-    <t>$liste_conversations : tableau simple des conversations avec $conversation comme index</t>
-  </si>
-  <si>
     <t>ajax_recuperer_detail_conversation.php</t>
   </si>
   <si>
@@ -331,19 +304,10 @@
     <t>ok</t>
   </si>
   <si>
-    <t>$_GET:  id de l'atriste selectionné</t>
-  </si>
-  <si>
     <t>afficherConversation</t>
   </si>
   <si>
     <t>nouveauMessage</t>
-  </si>
-  <si>
-    <t>$contact_id; id du correspondant et $message; le message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$_GET: $artist_id; id de l'artiste </t>
   </si>
   <si>
     <t>si nouvelle conversation: 
@@ -357,6 +321,79 @@
   </si>
   <si>
     <t>Extraire les conversations avec la MAJ et péparer son affichage</t>
+  </si>
+  <si>
+    <t>contact_id; id du correspondant, contact_role, son role, divConv, la div cliqué (null si pas de div)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artist_id; id de l'artiste </t>
+  </si>
+  <si>
+    <t>user_id; id de l'artiste dans la table User</t>
+  </si>
+  <si>
+    <t>contact_id; id du correspondant et message; le message</t>
+  </si>
+  <si>
+    <t>majMessages</t>
+  </si>
+  <si>
+    <t>contact_id; id du correspondant et contact_role; role du contact</t>
+  </si>
+  <si>
+    <t>MAJ des messages de la conversation</t>
+  </si>
+  <si>
+    <t>afficherMotDePasse</t>
+  </si>
+  <si>
+    <t>afficher le champ du mot de passe dans le formulaire pour permettre sa modification</t>
+  </si>
+  <si>
+    <t>$liste_conversations : tableau simple des conversations avec $firstMsg comme index</t>
+  </si>
+  <si>
+    <t>frag_msg_conversation.php</t>
+  </si>
+  <si>
+    <t>fragments des messages de le conversation</t>
+  </si>
+  <si>
+    <t>si nouvelle conversation: 
+                    $user_contact: tableau d'objet utilisateur du nouveau contact
+                    $artist_contact : tableau d'objet artiste du nouveau contact
+si conversation existe: 
+                     $conversation: objet conversation chargé incluant tous les messages</t>
+  </si>
+  <si>
+    <t>$_GET: $user_id; user_id de l'artiste  de la table Artist</t>
+  </si>
+  <si>
+    <t>$_GET: $contact_id, id du contact et $message: le message envoyé</t>
+  </si>
+  <si>
+    <t>ajax_maj_conversations.php</t>
+  </si>
+  <si>
+    <t>extraire les conversations avec la MAJ et péparer son affichage</t>
+  </si>
+  <si>
+    <t>ajax_maj_messages.php</t>
+  </si>
+  <si>
+    <t>extraire les messages de la conversation avec la MAJ et péparer son affichage</t>
+  </si>
+  <si>
+    <t>$_GET: $contact_id: id du correspondant et $contact_role : role du correspondant</t>
+  </si>
+  <si>
+    <t>$_GET  avec fetch: $contact_id, id du contact avec qui on converse et $contact_role; le role du contact</t>
+  </si>
+  <si>
+    <t>$_GET:  user_id : user_id de l'atriste selectionné dans la table Artist</t>
+  </si>
+  <si>
+    <t>$_POST: filtres choisis dans le formulaire</t>
   </si>
 </sst>
 </file>
@@ -417,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -425,6 +462,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E3321C-651F-46B0-B462-5EA3941D407A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -789,94 +829,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB09247-C300-46AB-9DD2-6EC31C5D4CF1}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -907,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -916,184 +976,198 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="72">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="72">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1106,17 +1180,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8907C1F-6F1C-49BC-ADD2-10CDC8188AFE}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="78.77734375" customWidth="1"/>
     <col min="2" max="2" width="47.21875" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1124,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1133,256 +1207,284 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>43</v>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
+      <c r="A11" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>67</v>
+      <c r="A14" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>104</v>
+      <c r="A19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="B2:B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="B2:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
